--- a/ScenarioTest_finalapi.xlsx
+++ b/ScenarioTest_finalapi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="91">
   <si>
     <t>Created By</t>
   </si>
@@ -81,23 +81,344 @@
     <t>REGISTER</t>
   </si>
   <si>
-    <t>TC - register successful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. </t>
-  </si>
-  <si>
     <t>Winda</t>
   </si>
   <si>
     <t>final project api reqrest.in</t>
+  </si>
+  <si>
+    <t>1. send request</t>
+  </si>
+  <si>
+    <t>2. verify response status</t>
+  </si>
+  <si>
+    <t>3. verify element property value</t>
+  </si>
+  <si>
+    <t>1. name : morpheus
+2. job : leader</t>
+  </si>
+  <si>
+    <t>get output response</t>
+  </si>
+  <si>
+    <t>get response status 200</t>
+  </si>
+  <si>
+    <t>TC - post register successful</t>
+  </si>
+  <si>
+    <t>REG_002</t>
+  </si>
+  <si>
+    <t>TC - post register unsuccessful</t>
+  </si>
+  <si>
+    <t>get response status 400</t>
+  </si>
+  <si>
+    <t>LOGIN_001</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>TC - post login successful</t>
+  </si>
+  <si>
+    <t>LOGIN_002</t>
+  </si>
+  <si>
+    <t>TC - post login unsuccessful</t>
+  </si>
+  <si>
+    <t>CREATE_001</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>TC - post create</t>
+  </si>
+  <si>
+    <t>get response status 201</t>
+  </si>
+  <si>
+    <t>USER_001</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>TC - get list user</t>
+  </si>
+  <si>
+    <t>data verified</t>
+  </si>
+  <si>
+    <t>1. page : 2
+2. per_page : 6
+3. total : 12
+4. total_pages: 2
+5. data : id, email, first_name, last_name,avatar</t>
+  </si>
+  <si>
+    <t>USER_002</t>
+  </si>
+  <si>
+    <t>TC - get single user</t>
+  </si>
+  <si>
+    <t>1. id : 2
+2. email: janet.weaver@reqres.in
+3. first_name : Janet
+4. last_name : Weaver
+5. avatar : https://reqres.in/img/faces/2-image.jpg
+6. url : https://reqres.in/#support-heading
+7. text : To keep ReqRes free, contributions towards server costs are appreciated!</t>
+  </si>
+  <si>
+    <t>USER_003</t>
+  </si>
+  <si>
+    <t>TC - get single user not found</t>
+  </si>
+  <si>
+    <t>get response status 404</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>UNKNOWN_001</t>
+  </si>
+  <si>
+    <t>UNKNOWN_002</t>
+  </si>
+  <si>
+    <t>UNKNOWN_003</t>
+  </si>
+  <si>
+    <t>TC - get list resource</t>
+  </si>
+  <si>
+    <t>TC - get single resource</t>
+  </si>
+  <si>
+    <t>TC - get single resource not found</t>
+  </si>
+  <si>
+    <t>1. page : 1
+2. per_page : 6
+3. total : 12
+4. total_pages: 2
+5. data : id, name, year, color, pantone_value</t>
+  </si>
+  <si>
+    <t>1. data :
+id : 2
+name : fuchsia rose
+year : 2001
+color : #C74375
+pantone_value : 17-2031
+2. support
+url: https://reqres.in/#support-heading
+text : To keep ReqRes free, contributions towards server costs are appreciated!</t>
+  </si>
+  <si>
+    <t>DELAYE_001</t>
+  </si>
+  <si>
+    <t>DELAYE</t>
+  </si>
+  <si>
+    <t>TC - get delaye response</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>UPDATE_001</t>
+  </si>
+  <si>
+    <t>TC - put update</t>
+  </si>
+  <si>
+    <t>UPDATE_002</t>
+  </si>
+  <si>
+    <t>TC - patch update</t>
+  </si>
+  <si>
+    <t>1. name : morpheus
+2. job : zion resident</t>
+  </si>
+  <si>
+    <t>1. send request with http body</t>
+  </si>
+  <si>
+    <t>DELETE_001</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>TC - delete</t>
+  </si>
+  <si>
+    <t>get response status 204</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://reqres.in/api/users?delay=3 </t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/unknown/23</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/unknown/2</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/unknown</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users/23</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users?page=2</t>
+  </si>
+  <si>
+    <t>1. id : 4
+2. token : QpwL5tke4Pnpja7X4</t>
+  </si>
+  <si>
+    <t>1. error : Missing password</t>
+  </si>
+  <si>
+    <t>1. token : QpwL5tke4Pnpja7X4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+url : https://reqres.in/api/register
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Body :
+1. email : eve.holt@reqres.in
+ 2. password: pistol</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://reqres.in/api/register
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Body :
+1. email: sydney@fife</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://reqres.in/api/login
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Body :
+1. email: eve.holt@reqres.in
+2. password: cityslicka</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://reqres.in/api/login
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Body : 
+1. email: peter@klaven</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://reqres.in/api/users
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. name : morpheus
+2. job : leader</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://reqres.in/api/users/2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Body:
+1.name: morpheus
+2.job: zion resident</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -147,6 +468,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -162,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -301,11 +641,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,6 +802,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -392,11 +816,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -634,15 +1113,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="25"/>
@@ -707,14 +1186,14 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="32">
+      <c r="G3" s="27">
         <v>44754</v>
       </c>
       <c r="H3" s="23"/>
@@ -775,10 +1254,10 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -816,7 +1295,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="14"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="30"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="10">
         <v>15</v>
       </c>
@@ -977,10 +1456,10 @@
       <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="17" t="s">
         <v>14</v>
       </c>
@@ -1013,224 +1492,686 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:28" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="C12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="44"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:28" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+    <row r="14" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="45"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+    <row r="15" spans="1:28" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="19"/>
+      <c r="A30" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="45"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="19"/>
+      <c r="A33" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="44"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="37" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="44"/>
+    </row>
+    <row r="38" spans="1:19" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="40"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="44"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+    <row r="41" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="40"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="45"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="A42" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="44"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+    <row r="44" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -1242,16 +2183,32 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+    <row r="45" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="34"/>
+      <c r="F45" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -1263,16 +2220,22 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+    <row r="46" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="44"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -1284,16 +2247,24 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+    <row r="47" spans="1:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="35"/>
+      <c r="F47" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="45"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -1305,16 +2276,32 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+    <row r="48" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="34"/>
+      <c r="F48" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -1326,16 +2313,22 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+    <row r="49" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="44"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -1347,16 +2340,24 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+    <row r="50" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="45"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -1368,16 +2369,30 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+    <row r="51" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -1389,16 +2404,22 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+    <row r="52" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="44"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -1410,16 +2431,24 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+    <row r="53" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="39"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" s="44"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -1431,16 +2460,32 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+    <row r="54" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="46" t="s">
+        <v>7</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -1452,16 +2497,22 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+    <row r="55" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="40"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="47"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -1473,16 +2524,16 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+    <row r="56" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -6925,7 +7976,60 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="62">
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="I15:I17"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E3:F3"/>
@@ -6936,7 +8040,24 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F54" r:id="rId1"/>
+    <hyperlink ref="F48" r:id="rId2"/>
+    <hyperlink ref="F45" r:id="rId3"/>
+    <hyperlink ref="F51" r:id="rId4"/>
+    <hyperlink ref="F42" r:id="rId5"/>
+    <hyperlink ref="F39" r:id="rId6"/>
+    <hyperlink ref="F36" r:id="rId7"/>
+    <hyperlink ref="F33" r:id="rId8"/>
+    <hyperlink ref="F30" r:id="rId9"/>
+    <hyperlink ref="F27" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11" display="https://reqres.in/api/register_x000a_Body :_x000a_name : morpheus_x000a_job : leader"/>
+    <hyperlink ref="F15" r:id="rId12" display="https://reqres.in/api/register"/>
+    <hyperlink ref="F18" r:id="rId13" display="https://reqres.in/api/login"/>
+    <hyperlink ref="F21" r:id="rId14" display="https://reqres.in/api/login"/>
+    <hyperlink ref="F24" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>
--- a/ScenarioTest_finalapi.xlsx
+++ b/ScenarioTest_finalapi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>Created By</t>
   </si>
@@ -412,6 +412,12 @@
 1.name: morpheus
 2.job: zion resident</t>
     </r>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users/2
+Body:
+1.name: morpheus
+2.job: zion resident</t>
   </si>
 </sst>
 </file>
@@ -791,6 +797,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -815,63 +878,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="108" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1113,22 +1119,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1181,22 +1187,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27">
+      <c r="F3" s="44"/>
+      <c r="G3" s="46">
         <v>44754</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1249,15 +1255,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="49" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1295,7 +1301,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="14"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="10">
         <v>15</v>
       </c>
@@ -1456,10 +1462,10 @@
       <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="17" t="s">
         <v>14</v>
       </c>
@@ -1493,37 +1499,37 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="50" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
@@ -1535,59 +1541,59 @@
       <c r="H13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="36" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="50" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="19" t="s">
         <v>23</v>
       </c>
@@ -1599,58 +1605,58 @@
       <c r="H16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="36" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="51" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="45"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="50" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="19" t="s">
         <v>23</v>
       </c>
@@ -1662,56 +1668,56 @@
       <c r="H19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="36" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="51" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="50" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="19" t="s">
         <v>23</v>
       </c>
@@ -1723,58 +1729,58 @@
       <c r="H22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="44"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="36" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="51" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="49" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="19" t="s">
         <v>23</v>
       </c>
@@ -1786,58 +1792,58 @@
       <c r="H25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="36" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="51" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="45"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="48" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="19" t="s">
         <v>23</v>
       </c>
@@ -1849,56 +1855,56 @@
       <c r="H28" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="44"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="36" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="37" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="45"/>
+      <c r="I29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="41" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="48" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="46" t="s">
+      <c r="I30" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="19" t="s">
         <v>23</v>
       </c>
@@ -1910,58 +1916,58 @@
       <c r="H31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="44"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="36" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="37" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="45"/>
+      <c r="I32" s="40"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="41" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="48" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I33" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="19" t="s">
         <v>23</v>
       </c>
@@ -1973,54 +1979,54 @@
       <c r="H34" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="44"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="36" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="45"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="40"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="48" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="46" t="s">
+      <c r="I36" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="19" t="s">
         <v>23</v>
       </c>
@@ -2032,56 +2038,56 @@
       <c r="H37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="44"/>
+      <c r="I37" s="39"/>
     </row>
     <row r="38" spans="1:19" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="36" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="37" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="45"/>
+      <c r="I38" s="40"/>
     </row>
     <row r="39" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="41" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="48" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="46" t="s">
+      <c r="I39" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="19" t="s">
         <v>23</v>
       </c>
@@ -2093,59 +2099,59 @@
       <c r="H40" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="44"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:19" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="36" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="37" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="45"/>
+      <c r="I41" s="40"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="41" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="48" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="46" t="s">
+      <c r="I42" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="19" t="s">
         <v>23</v>
       </c>
@@ -2157,21 +2163,21 @@
       <c r="H43" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="44"/>
+      <c r="I43" s="39"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="36" t="s">
+      <c r="A44" s="32"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="45"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="40"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2184,29 +2190,29 @@
       <c r="S44" s="3"/>
     </row>
     <row r="45" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="48" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="46" t="s">
+      <c r="I45" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J45" s="3"/>
@@ -2221,9 +2227,9 @@
       <c r="S45" s="3"/>
     </row>
     <row r="46" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="19" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +2241,7 @@
       <c r="H46" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="44"/>
+      <c r="I46" s="39"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2248,23 +2254,23 @@
       <c r="S46" s="3"/>
     </row>
     <row r="47" spans="1:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="36" t="s">
+      <c r="A47" s="32"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="37" t="s">
+      <c r="E47" s="24"/>
+      <c r="F47" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I47" s="45"/>
+      <c r="I47" s="40"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2277,29 +2283,29 @@
       <c r="S47" s="3"/>
     </row>
     <row r="48" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="34"/>
-      <c r="F48" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="33" t="s">
+      <c r="E48" s="23"/>
+      <c r="F48" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J48" s="3"/>
@@ -2314,9 +2320,9 @@
       <c r="S48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="19" t="s">
         <v>23</v>
       </c>
@@ -2328,7 +2334,7 @@
       <c r="H49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="44"/>
+      <c r="I49" s="39"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2341,23 +2347,23 @@
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="36" t="s">
+      <c r="A50" s="32"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="37" t="s">
+      <c r="E50" s="24"/>
+      <c r="F50" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="36" t="s">
+      <c r="G50" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I50" s="45"/>
+      <c r="I50" s="40"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2370,27 +2376,27 @@
       <c r="S50" s="3"/>
     </row>
     <row r="51" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="42"/>
-      <c r="C51" s="41" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="49" t="s">
+      <c r="E51" s="23"/>
+      <c r="F51" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I51" s="46" t="s">
+      <c r="I51" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J51" s="3"/>
@@ -2405,9 +2411,9 @@
       <c r="S51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="19" t="s">
         <v>23</v>
       </c>
@@ -2419,7 +2425,7 @@
       <c r="H52" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="44"/>
+      <c r="I52" s="39"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2432,9 +2438,9 @@
       <c r="S52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="19" t="s">
         <v>24</v>
       </c>
@@ -2448,7 +2454,7 @@
       <c r="H53" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I53" s="44"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2461,29 +2467,29 @@
       <c r="S53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="48" t="s">
+      <c r="E54" s="23"/>
+      <c r="F54" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I54" s="46" t="s">
+      <c r="I54" s="35" t="s">
         <v>7</v>
       </c>
       <c r="J54" s="3"/>
@@ -2498,21 +2504,21 @@
       <c r="S54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="36" t="s">
+      <c r="A55" s="32"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36" t="s">
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I55" s="47"/>
+      <c r="I55" s="36"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -7977,21 +7983,37 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="I24:I26"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="I33:I35"/>
@@ -8008,37 +8030,21 @@
     <mergeCell ref="I42:I44"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="B48:B53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F54" r:id="rId1"/>
